--- a/プロト仕様書/画面UI.xlsx
+++ b/プロト仕様書/画面UI.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9A19EE-B60F-4FAC-A1A7-B052AD06925E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A22B61-C1FF-4F87-BB0D-F6D339D509D2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,6 +359,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="78000"/>
+          </a:srgbClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -388,15 +393,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -411,8 +416,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="2533650"/>
-          <a:ext cx="1333500" cy="323850"/>
+          <a:off x="0" y="2038350"/>
+          <a:ext cx="1333500" cy="2638425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -450,6 +455,47 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>武器の切り替え</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>選択している武器が前に来る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>背景は半透明</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>選択している武器の背景は赤色</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>選択してないのは青色で半透明</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -527,16 +573,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -551,8 +597,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3867151" y="2800350"/>
-          <a:ext cx="2381250" cy="561976"/>
+          <a:off x="3086100" y="2590799"/>
+          <a:ext cx="3162301" cy="828675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -577,7 +623,18 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面下部分に表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>武器の選択とかぶるとき、文字の表示中武器の選択表示を消す</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -655,23 +712,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E7FFE6-0715-4288-BC9A-44CDA8A4F0E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{110907BD-B5CF-483B-A018-3A7E6A1154EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -679,8 +736,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6315075" y="628650"/>
-          <a:ext cx="895350" cy="323850"/>
+          <a:off x="6067425" y="2466975"/>
+          <a:ext cx="1333500" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -716,77 +773,6 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>電波マーク</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{110907BD-B5CF-483B-A018-3A7E6A1154EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6276975" y="2962275"/>
-          <a:ext cx="1333500" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>博士のセリフ</a:t>
           </a:r>
         </a:p>
@@ -797,66 +783,174 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矢印: 上下 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB98EF7-2F0B-4D21-B33E-AE876731189A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="2581275"/>
+          <a:ext cx="247650" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+        <xdr:cNvPr id="17" name="楕円 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B922BD90-227F-448A-A7C6-CCC6F26A2AF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC9F0F9-14B7-4D0B-B955-B0790EF3FC30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1838325" y="276225"/>
-          <a:ext cx="476250" cy="276225"/>
+          <a:off x="1933576" y="304800"/>
+          <a:ext cx="200024" cy="209550"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>×</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>３</a:t>
-          </a:r>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F72DC81-2810-4660-B722-4E5E8A475C44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190751" y="314325"/>
+          <a:ext cx="200024" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1131,7 +1225,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
